--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -490,16 +490,16 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D2" t="n">
         <v>2000</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Output Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,32 +451,127 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>R20</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>R21</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>R22</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>R23</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>R21'</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>R22'</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>R23'</t>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>R24</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>R25</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>R26</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>R20X</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>R21X</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>R22X</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>R23X</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>R24X</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>R25X</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>R8X</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>R26X</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>R2X</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>R3X</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>R4X</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>R5X</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>R6X</t>
         </is>
       </c>
     </row>
@@ -499,18 +594,75 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>7</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
+      <c r="S2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -547,6 +699,63 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,18 +776,75 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -615,6 +881,63 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,8 +972,65 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -585,7 +585,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="D2" t="n">
         <v>2000</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Output Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -582,61 +582,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C2" t="n">
-        <v>665</v>
+        <v>9994</v>
       </c>
       <c r="D2" t="n">
-        <v>2000</v>
+        <v>9970</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9994</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9982</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9994</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9982</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1031,6 +1031,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -612,7 +612,7 @@
         <v>9982</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>9997</v>
       </c>
       <c r="M2" t="n">
         <v>10006</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -585,22 +585,22 @@
         <v>10000</v>
       </c>
       <c r="C2" t="n">
-        <v>9994</v>
+        <v>9969</v>
       </c>
       <c r="D2" t="n">
-        <v>9970</v>
+        <v>9945</v>
       </c>
       <c r="E2" t="n">
-        <v>9994</v>
+        <v>9989</v>
       </c>
       <c r="F2" t="n">
-        <v>9982</v>
+        <v>9937</v>
       </c>
       <c r="G2" t="n">
         <v>10000</v>
       </c>
       <c r="H2" t="n">
-        <v>9994</v>
+        <v>9979</v>
       </c>
       <c r="I2" t="n">
         <v>10000</v>
@@ -609,13 +609,13 @@
         <v>10000</v>
       </c>
       <c r="K2" t="n">
-        <v>9982</v>
+        <v>9977</v>
       </c>
       <c r="L2" t="n">
-        <v>9997</v>
+        <v>10008</v>
       </c>
       <c r="M2" t="n">
-        <v>10006</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -582,58 +582,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>9969</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>9945</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>9989</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>9937</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>9979</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9977</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10008</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -673,28 +673,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1200</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -764,28 +764,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -855,28 +855,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,28 +946,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1700</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -582,28 +582,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Output Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,132 +446,137 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>R2X</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>R3X</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R4X</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>R5X</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>R6X</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>R7X</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>R8X</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>R20</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>R20X</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>R21</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>R21X</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>R22</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>R22X</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>R23</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>R23X</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>R24</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>R24X</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>R25</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>R25X</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>R26</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>R20X</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>R21X</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>R22X</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>R23X</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>R24X</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>R25X</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>R8X</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>R26X</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>R2X</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>R3X</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>R4X</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>R5X</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>R6X</t>
         </is>
       </c>
     </row>
@@ -588,19 +593,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>30</v>
@@ -609,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -663,6 +668,9 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -679,19 +687,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>11</v>
@@ -700,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -754,6 +762,9 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -770,19 +781,19 @@
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>11</v>
@@ -791,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -845,6 +856,9 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -861,19 +875,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
@@ -882,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -936,6 +950,9 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -952,19 +969,19 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>11</v>
@@ -973,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1027,10 +1044,13 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Output Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,137 +446,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>R2X</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R21</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>R3X</t>
+          <t>R22</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R23</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>R4X</t>
+          <t>R21X</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R22X</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>R5X</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>R6X</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>R7</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>R7X</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>R8</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>R8X</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>R20</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>R20X</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>R21</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>R21X</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>R22</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>R22X</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>R23</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
           <t>R23X</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>R24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>R24X</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>R25</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>R25X</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>R26</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>R26X</t>
         </is>
       </c>
     </row>
@@ -587,90 +487,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>30</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>30</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -681,90 +521,30 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,90 +555,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -869,90 +589,30 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,94 +623,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -490,10 +490,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>120</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Output Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,137 +446,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>R2X</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R21</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>R3X</t>
+          <t>R21X</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R22</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>R4X</t>
+          <t>R22X</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R23</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>R5X</t>
+          <t>R23X</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R24</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>R6X</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>R7</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>R7X</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>R8</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>R8X</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>R20</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>R20X</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>R21</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>R21X</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>R22</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>R22X</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>R23</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>R23X</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>R24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
           <t>R24X</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>R25</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>R25X</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>R26</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>R26X</t>
         </is>
       </c>
     </row>
@@ -587,90 +497,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>30</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>30</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -681,90 +537,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,90 +577,36 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -869,90 +617,36 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,94 +657,80 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Foremz</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -88,10 +88,13 @@
     <t>Expected Utility: 5.472116134447312</t>
   </si>
   <si>
-    <t>Expected Utility: 5.077993598632067</t>
-  </si>
-  <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22319742171086965</t>
+    <t>Expected Utility: 5.34296865663645</t>
+  </si>
+  <si>
+    <t>Expected Utility: 5.21822888677308</t>
+  </si>
+  <si>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22319742171086965</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -99,11 +102,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.19001377514234594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.702841771777353</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.19001377514234594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.702841771777353</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -115,10 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.23774751247499998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 (TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.1749195450676958</t>
   </si>
   <si>
@@ -127,10 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.19123637508547925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 (TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15876438222751935</t>
   </si>
   <si>
@@ -143,7 +138,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.3579655569945986</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.3579655569945986</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -159,7 +154,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.324131868608617</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.324131868608617</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -167,6 +162,10 @@
   </si>
   <si>
     <t xml:space="preserve">
+(TRANSFER self Foremz ((Timber 1)) EU: 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 (TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.09135172474836376</t>
   </si>
   <si>
@@ -179,7 +178,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.29410111103094294</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.29410111103094294</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -187,7 +186,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
+(TRANSFER self Foremz ((Electronics 1)) EU: -0.057727704552550746</t>
   </si>
 </sst>
 </file>
@@ -594,31 +593,31 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
@@ -632,31 +631,31 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
         <v>45</v>
@@ -670,31 +669,31 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
@@ -708,31 +707,31 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
         <v>46</v>
@@ -746,31 +745,31 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
         <v>46</v>
@@ -781,37 +780,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
       <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -822,34 +821,34 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -860,28 +859,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
         <v>42</v>
@@ -895,37 +894,37 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
         <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -933,37 +932,37 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -94,39 +94,31 @@
     <t>Expected Utility: 5.21822888677308</t>
   </si>
   <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22319742171086965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.1686327452878644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.19001377514234594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.702841771777353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.21391762848025753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.1931680556418982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.1749195450676958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.23537003735025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15876438222751935</t>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.16694641783498576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.21177845219545496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.19123637508547925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.17317034961701883</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -134,15 +126,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.17317034961701883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.3579655569945986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.1443786068364165</t>
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15717673840524415</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -150,15 +134,31 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15717673840524415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.324131868608617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.18743077122127982</t>
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.17143864612084866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.35438590142465265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.14293482076805233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.2283793118709102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15560497102119172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.18555646350906704</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -166,27 +166,27 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.09135172474836376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.2283793118709102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.14293482076805233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.29410111103094294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.16972425965964016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFER self Foremz ((Electronics 1)) EU: -0.057727704552550746</t>
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.09043820750088012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.2260955187522011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.1415054725603718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.2911600999206335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.16802701706304377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFER self Foremz ((Electronics 1)) EU: -0.057523822012224654</t>
   </si>
 </sst>
 </file>

--- a/data/output_data.xlsx
+++ b/data/output_data.xlsx
@@ -88,10 +88,10 @@
     <t>Expected Utility: 5.472116134447312</t>
   </si>
   <si>
-    <t>Expected Utility: 5.34296865663645</t>
-  </si>
-  <si>
-    <t>Expected Utility: 5.21822888677308</t>
+    <t>Expected Utility: 5.33770047422445</t>
+  </si>
+  <si>
+    <t>Expected Utility: 5.171968637050121</t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
@@ -186,7 +186,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFER self Foremz ((Electronics 1)) EU: -0.057523822012224654</t>
+(TRANSFER self Foremz ((Electronics 1)) EU: -0.43696381975762977</t>
   </si>
 </sst>
 </file>
